--- a/work_experience/data/applied jobs.xlsx
+++ b/work_experience/data/applied jobs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einel\Documents\Projects\einelson.github.io\work_experience\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BD2F7E-4610-4329-B843-B9539EB7E65D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6B1FC-73D6-4FBE-8F63-1E05DDD4EA47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>Applied</t>
   </si>
@@ -235,6 +235,60 @@
   </si>
   <si>
     <t>iRobot</t>
+  </si>
+  <si>
+    <t>Reynolds and reynolds</t>
+  </si>
+  <si>
+    <t>Software developer</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t>Graftek engineering</t>
+  </si>
+  <si>
+    <t>Austin TX</t>
+  </si>
+  <si>
+    <t>Computer vision engineer</t>
+  </si>
+  <si>
+    <t>Fox robotics</t>
+  </si>
+  <si>
+    <t>Aunt Bertha</t>
+  </si>
+  <si>
+    <t>QA automation Engineer</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>ARCTEC Solutions</t>
+  </si>
+  <si>
+    <t>Middleburg VA</t>
+  </si>
+  <si>
+    <t>Embedded electronics software engineer</t>
+  </si>
+  <si>
+    <t>Bastian Solutions</t>
+  </si>
+  <si>
+    <t>avidxchange</t>
+  </si>
+  <si>
+    <t>Software automation internship</t>
+  </si>
+  <si>
+    <t>Robotics intern</t>
+  </si>
+  <si>
+    <t>robotics software</t>
   </si>
 </sst>
 </file>
@@ -568,25 +622,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="24.40625" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.40625" customWidth="1"/>
+    <col min="5" max="5" width="10.40625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="9" max="9" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -615,7 +669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -632,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -649,7 +703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -663,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -677,7 +731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -691,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -708,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -725,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -739,7 +793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -753,7 +807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -776,7 +830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -793,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -813,7 +867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -827,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -844,7 +898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -867,7 +921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -884,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -907,32 +961,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -949,7 +1003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -966,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -983,24 +1037,135 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/work_experience/data/applied jobs.xlsx
+++ b/work_experience/data/applied jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einel\Documents\Projects\einelson.github.io\work_experience\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6B1FC-73D6-4FBE-8F63-1E05DDD4EA47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7544CFB6-8816-42AB-8880-5635C107D6FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t>Applied</t>
   </si>
@@ -138,12 +138,6 @@
     <t>Metecs</t>
   </si>
   <si>
-    <t>Job board/ email</t>
-  </si>
-  <si>
-    <t>Job board/ Email</t>
-  </si>
-  <si>
     <t>Software intern</t>
   </si>
   <si>
@@ -156,15 +150,9 @@
     <t>Contact orm</t>
   </si>
   <si>
-    <t>Job Board</t>
-  </si>
-  <si>
     <t>Study up on UDP, TCP, OSI levels. Ham radio</t>
   </si>
   <si>
-    <t>Job Board/ reach out on LinkedIn</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -174,9 +162,6 @@
     <t>Software engineer</t>
   </si>
   <si>
-    <t>Job posting</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -289,6 +274,63 @@
   </si>
   <si>
     <t>robotics software</t>
+  </si>
+  <si>
+    <t>Space vehicle software engineer</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>website/ Email</t>
+  </si>
+  <si>
+    <t>website/ email</t>
+  </si>
+  <si>
+    <t>website/ reach out on LinkedIn</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>CACI</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>embedded software engineer</t>
+  </si>
+  <si>
+    <t>website-Ziprecruiter</t>
+  </si>
+  <si>
+    <t>Sparx engineering</t>
+  </si>
+  <si>
+    <t>Tokio Marine HHC</t>
+  </si>
+  <si>
+    <t>Entry level software engineer</t>
+  </si>
+  <si>
+    <t>Erdos Miller</t>
+  </si>
+  <si>
+    <t>Follow up on Monday 21 jobs@accelirate.com</t>
+  </si>
+  <si>
+    <t>accelirate</t>
+  </si>
+  <si>
+    <t>Automation engineer</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Florida</t>
   </si>
 </sst>
 </file>
@@ -622,11 +664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -666,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.75">
@@ -677,10 +719,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -697,7 +739,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -711,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -725,7 +767,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -753,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -770,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -787,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -801,7 +843,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -815,10 +857,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -827,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.75">
@@ -838,10 +880,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -855,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -864,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.75">
@@ -875,7 +917,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -883,16 +925,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -918,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.75">
@@ -929,10 +971,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -940,16 +982,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -958,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.75">
@@ -988,16 +1030,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1005,16 +1047,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1022,13 +1064,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1039,36 +1081,36 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -1076,96 +1118,201 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
         <v>75</v>
       </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
+      <c r="B36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
         <v>78</v>
       </c>
-      <c r="D34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
         <v>80</v>
       </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="C37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
+      <c r="D40" t="s">
         <v>84</v>
       </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
         <v>66</v>
       </c>
-      <c r="C39" t="s">
-        <v>87</v>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/work_experience/data/applied jobs.xlsx
+++ b/work_experience/data/applied jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einel\Documents\Projects\einelson.github.io\work_experience\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7544CFB6-8816-42AB-8880-5635C107D6FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6DF27F-3664-4372-B612-20340CF61E18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
   <si>
     <t>Applied</t>
   </si>
@@ -141,15 +141,9 @@
     <t>Software intern</t>
   </si>
   <si>
-    <t>Concact form</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Contact orm</t>
-  </si>
-  <si>
     <t>Study up on UDP, TCP, OSI levels. Ham radio</t>
   </si>
   <si>
@@ -331,6 +325,12 @@
   </si>
   <si>
     <t>Florida</t>
+  </si>
+  <si>
+    <t>Radio wave, ham radio</t>
+  </si>
+  <si>
+    <t>Contact form</t>
   </si>
 </sst>
 </file>
@@ -667,22 +667,22 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.40625" customWidth="1"/>
-    <col min="3" max="3" width="34.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.40625" customWidth="1"/>
-    <col min="5" max="5" width="10.40625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -708,10 +708,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -722,13 +722,13 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -739,13 +739,13 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -753,13 +753,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -767,13 +767,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -787,7 +787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -795,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -804,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -812,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -821,7 +821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -829,13 +829,13 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -843,13 +843,13 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -857,10 +857,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -869,10 +869,10 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -880,16 +880,16 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -897,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -906,10 +906,10 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -917,30 +917,30 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -960,10 +960,10 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -971,348 +971,363 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>66</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B32" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>69</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>70</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
+      <c r="C34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>72</v>
       </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="D34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
         <v>75</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="D36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
         <v>78</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
         <v>89</v>
       </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
+      <c r="D42" t="s">
         <v>90</v>
       </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A42" t="s">
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
         <v>93</v>
       </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>94</v>
       </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
         <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/work_experience/data/applied jobs.xlsx
+++ b/work_experience/data/applied jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einel\Documents\Projects\einelson.github.io\work_experience\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6DF27F-3664-4372-B612-20340CF61E18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA67524B-2C19-4ED2-8111-E337A726B418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="141">
   <si>
     <t>Applied</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Marietta GA</t>
   </si>
   <si>
-    <t>Exxon</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
     <t>Bionaut Labs</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Study up on UDP, TCP, OSI levels. Ham radio</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -207,12 +198,6 @@
     <t>HX5</t>
   </si>
   <si>
-    <t>Jones Lange Lassalle</t>
-  </si>
-  <si>
-    <t>jacobs</t>
-  </si>
-  <si>
     <t>iRobot</t>
   </si>
   <si>
@@ -234,9 +219,6 @@
     <t>Computer vision engineer</t>
   </si>
   <si>
-    <t>Fox robotics</t>
-  </si>
-  <si>
     <t>Aunt Bertha</t>
   </si>
   <si>
@@ -267,9 +249,6 @@
     <t>Robotics intern</t>
   </si>
   <si>
-    <t>robotics software</t>
-  </si>
-  <si>
     <t>Space vehicle software engineer</t>
   </si>
   <si>
@@ -312,9 +291,6 @@
     <t>Erdos Miller</t>
   </si>
   <si>
-    <t>Follow up on Monday 21 jobs@accelirate.com</t>
-  </si>
-  <si>
     <t>accelirate</t>
   </si>
   <si>
@@ -327,10 +303,151 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>Radio wave, ham radio</t>
-  </si>
-  <si>
     <t>Contact form</t>
+  </si>
+  <si>
+    <t>FDM</t>
+  </si>
+  <si>
+    <t>Jr software developer</t>
+  </si>
+  <si>
+    <t>Pensa systems</t>
+  </si>
+  <si>
+    <t>Backend developer</t>
+  </si>
+  <si>
+    <t>HiViz lighting INC</t>
+  </si>
+  <si>
+    <t>Embedded systems engineer</t>
+  </si>
+  <si>
+    <t>indeed</t>
+  </si>
+  <si>
+    <t>Idaho scientific</t>
+  </si>
+  <si>
+    <t>Firmware/ software engineer</t>
+  </si>
+  <si>
+    <t>Study up on UDP, TCP, OSI levels. Ham radio. Finished coding quiz</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Co-op</t>
+  </si>
+  <si>
+    <t>Santa Clara CA</t>
+  </si>
+  <si>
+    <t>Software engineer/ Comp Vis intern</t>
+  </si>
+  <si>
+    <t>Portfolio resident services</t>
+  </si>
+  <si>
+    <t>aramcos services</t>
+  </si>
+  <si>
+    <t>research software engineer</t>
+  </si>
+  <si>
+    <t>selby jennings</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Python automation engineer</t>
+  </si>
+  <si>
+    <t>S&amp;K global solutions</t>
+  </si>
+  <si>
+    <t>payload software integratoin engineer</t>
+  </si>
+  <si>
+    <t>Ursi Technologies</t>
+  </si>
+  <si>
+    <t>Data scientist</t>
+  </si>
+  <si>
+    <t>PCS software</t>
+  </si>
+  <si>
+    <t>AI-ML Developer</t>
+  </si>
+  <si>
+    <t>Barrow wise consulting</t>
+  </si>
+  <si>
+    <t>PeopleSoft Developer</t>
+  </si>
+  <si>
+    <t>Why did I apply to this?</t>
+  </si>
+  <si>
+    <t>Scott automation</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Systems programming engineer</t>
+  </si>
+  <si>
+    <t>SuperDroid Robots Inc</t>
+  </si>
+  <si>
+    <t>Raleigh NC</t>
+  </si>
+  <si>
+    <t>Computer programmer</t>
+  </si>
+  <si>
+    <t>Synthetik applied technologies</t>
+  </si>
+  <si>
+    <t>San Antonio TX</t>
+  </si>
+  <si>
+    <t>Not hiring anymore</t>
+  </si>
+  <si>
+    <t>Study up on FPGA, moved onto final round of interviewing</t>
+  </si>
+  <si>
+    <t>NCA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Computer sciencist</t>
+  </si>
+  <si>
+    <t>Indeed/ website</t>
+  </si>
+  <si>
+    <t>reached out to me on Indeed</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Madison WI</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>Reached out to me through handshake</t>
   </si>
 </sst>
 </file>
@@ -664,11 +781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,9 +793,7 @@
     <col min="1" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="5" max="7" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="62" customWidth="1"/>
   </cols>
   <sheetData>
@@ -708,21 +823,21 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -730,16 +845,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -753,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -767,7 +882,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -775,13 +890,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -789,16 +904,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -812,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -823,13 +938,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -837,13 +952,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -851,16 +966,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -869,7 +984,7 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -880,10 +995,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -891,13 +1006,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -906,35 +1021,41 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -948,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -957,205 +1078,340 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
       <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -1163,55 +1419,67 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
       </c>
       <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
         <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -1219,92 +1487,134 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -1312,27 +1622,233 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="I45" t="s">
-        <v>95</v>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I23">
-    <sortCondition ref="B1:B23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
+    <sortCondition ref="B1:B21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
